--- a/Feuille_depouillement relatif.xlsx
+++ b/Feuille_depouillement relatif.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alumnienacfr-my.sharepoint.com/personal/remi_barbero_alumni_enac_fr/Documents/Echange/Elections/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\remi.barbero\OneDrive - alumni.enac.fr\Echange\Elections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="154" documentId="13_ncr:1_{E3F6CB48-4F73-4331-AA65-22F57D3F0996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{78FACAEC-7706-4A79-A319-D7B28ECDC30E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FF49650-52A8-4868-85D7-2F9626511ABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="30960" windowHeight="16800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -216,7 +216,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="59">
+  <borders count="58">
     <border>
       <left/>
       <right/>
@@ -961,26 +961,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1180,15 +1165,39 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1210,38 +1219,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1258,10 +1237,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1554,8 +1529,8 @@
   </sheetPr>
   <dimension ref="B1:O75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="L63" sqref="L63"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="H67" sqref="H67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1573,23 +1548,23 @@
     <row r="1" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
-      <c r="G1" s="79" t="s">
+      <c r="G1" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
     </row>
     <row r="2" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="86" t="s">
+      <c r="C2" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="86"/>
+      <c r="D2" s="77"/>
       <c r="E2" s="4" t="s">
         <v>22</v>
       </c>
@@ -1603,37 +1578,37 @@
       </c>
     </row>
     <row r="3" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="86" t="s">
+      <c r="C3" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="86"/>
+      <c r="D3" s="77"/>
       <c r="E3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="85" t="s">
+      <c r="G3" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="85"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
       <c r="L3" s="4"/>
     </row>
     <row r="4" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="86" t="s">
+      <c r="C4" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="86"/>
+      <c r="D4" s="77"/>
       <c r="E4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="87">
-        <v>46082</v>
-      </c>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87"/>
-      <c r="K4" s="87"/>
+      <c r="G4" s="78">
+        <v>46096</v>
+      </c>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78"/>
+      <c r="K4" s="78"/>
       <c r="M4" s="6" t="s">
         <v>25</v>
       </c>
@@ -1642,10 +1617,10 @@
       </c>
     </row>
     <row r="5" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="86" t="s">
+      <c r="C5" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="86"/>
+      <c r="D5" s="77"/>
       <c r="E5" s="4" t="s">
         <v>11</v>
       </c>
@@ -1688,10 +1663,10 @@
       </c>
     </row>
     <row r="8" spans="2:15" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="73" t="s">
+      <c r="B8" s="81" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="74"/>
+      <c r="C8" s="82"/>
       <c r="D8" s="52" t="s">
         <v>0</v>
       </c>
@@ -1730,7 +1705,7 @@
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="80" t="s">
+      <c r="B9" s="71" t="s">
         <v>33</v>
       </c>
       <c r="C9" s="60">
@@ -1774,7 +1749,7 @@
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="81"/>
+      <c r="B10" s="72"/>
       <c r="C10" s="61">
         <v>10</v>
       </c>
@@ -1816,7 +1791,7 @@
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="81"/>
+      <c r="B11" s="72"/>
       <c r="C11" s="61">
         <v>20</v>
       </c>
@@ -1858,7 +1833,7 @@
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="81"/>
+      <c r="B12" s="72"/>
       <c r="C12" s="61">
         <v>30</v>
       </c>
@@ -1900,7 +1875,7 @@
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="81"/>
+      <c r="B13" s="72"/>
       <c r="C13" s="61">
         <v>40</v>
       </c>
@@ -1942,7 +1917,7 @@
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="81"/>
+      <c r="B14" s="72"/>
       <c r="C14" s="61">
         <v>50</v>
       </c>
@@ -1984,7 +1959,7 @@
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="81"/>
+      <c r="B15" s="72"/>
       <c r="C15" s="61">
         <v>60</v>
       </c>
@@ -2026,7 +2001,7 @@
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="81"/>
+      <c r="B16" s="72"/>
       <c r="C16" s="61">
         <v>70</v>
       </c>
@@ -2068,7 +2043,7 @@
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="81"/>
+      <c r="B17" s="72"/>
       <c r="C17" s="62">
         <v>80</v>
       </c>
@@ -2110,7 +2085,7 @@
       </c>
     </row>
     <row r="18" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="81"/>
+      <c r="B18" s="72"/>
       <c r="C18" s="63">
         <v>90</v>
       </c>
@@ -2152,7 +2127,7 @@
       </c>
     </row>
     <row r="19" spans="2:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="82"/>
+      <c r="B19" s="73"/>
       <c r="C19" s="64" t="s">
         <v>12</v>
       </c>
@@ -2170,7 +2145,7 @@
       <c r="O19" s="33"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20" s="80" t="s">
+      <c r="B20" s="71" t="s">
         <v>33</v>
       </c>
       <c r="C20" s="65">
@@ -2214,7 +2189,7 @@
       </c>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B21" s="81"/>
+      <c r="B21" s="72"/>
       <c r="C21" s="61">
         <v>110</v>
       </c>
@@ -2256,7 +2231,7 @@
       </c>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B22" s="81"/>
+      <c r="B22" s="72"/>
       <c r="C22" s="65">
         <v>120</v>
       </c>
@@ -2298,7 +2273,7 @@
       </c>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B23" s="81"/>
+      <c r="B23" s="72"/>
       <c r="C23" s="61">
         <v>130</v>
       </c>
@@ -2340,7 +2315,7 @@
       </c>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B24" s="81"/>
+      <c r="B24" s="72"/>
       <c r="C24" s="65">
         <v>140</v>
       </c>
@@ -2382,7 +2357,7 @@
       </c>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B25" s="81"/>
+      <c r="B25" s="72"/>
       <c r="C25" s="61">
         <v>150</v>
       </c>
@@ -2424,7 +2399,7 @@
       </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B26" s="81"/>
+      <c r="B26" s="72"/>
       <c r="C26" s="65">
         <v>160</v>
       </c>
@@ -2466,7 +2441,7 @@
       </c>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B27" s="81"/>
+      <c r="B27" s="72"/>
       <c r="C27" s="61">
         <v>170</v>
       </c>
@@ -2508,7 +2483,7 @@
       </c>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B28" s="81"/>
+      <c r="B28" s="72"/>
       <c r="C28" s="66">
         <v>180</v>
       </c>
@@ -2550,7 +2525,7 @@
       </c>
     </row>
     <row r="29" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="81"/>
+      <c r="B29" s="72"/>
       <c r="C29" s="67">
         <v>190</v>
       </c>
@@ -2592,7 +2567,7 @@
       </c>
     </row>
     <row r="30" spans="2:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="82"/>
+      <c r="B30" s="73"/>
       <c r="C30" s="66" t="s">
         <v>12</v>
       </c>
@@ -2610,7 +2585,7 @@
       <c r="O30" s="33"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B31" s="80" t="s">
+      <c r="B31" s="71" t="s">
         <v>33</v>
       </c>
       <c r="C31" s="60">
@@ -2654,7 +2629,7 @@
       </c>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B32" s="81"/>
+      <c r="B32" s="72"/>
       <c r="C32" s="61">
         <v>210</v>
       </c>
@@ -2696,7 +2671,7 @@
       </c>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B33" s="81"/>
+      <c r="B33" s="72"/>
       <c r="C33" s="61">
         <v>220</v>
       </c>
@@ -2738,7 +2713,7 @@
       </c>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B34" s="81"/>
+      <c r="B34" s="72"/>
       <c r="C34" s="61">
         <v>230</v>
       </c>
@@ -2780,7 +2755,7 @@
       </c>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B35" s="81"/>
+      <c r="B35" s="72"/>
       <c r="C35" s="61">
         <v>240</v>
       </c>
@@ -2822,7 +2797,7 @@
       </c>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B36" s="81"/>
+      <c r="B36" s="72"/>
       <c r="C36" s="61">
         <v>250</v>
       </c>
@@ -2864,7 +2839,7 @@
       </c>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B37" s="81"/>
+      <c r="B37" s="72"/>
       <c r="C37" s="61">
         <v>260</v>
       </c>
@@ -2906,7 +2881,7 @@
       </c>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B38" s="81"/>
+      <c r="B38" s="72"/>
       <c r="C38" s="61">
         <v>270</v>
       </c>
@@ -2948,7 +2923,7 @@
       </c>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B39" s="81"/>
+      <c r="B39" s="72"/>
       <c r="C39" s="62">
         <v>280</v>
       </c>
@@ -2990,7 +2965,7 @@
       </c>
     </row>
     <row r="40" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="81"/>
+      <c r="B40" s="72"/>
       <c r="C40" s="63">
         <v>290</v>
       </c>
@@ -3032,7 +3007,7 @@
       </c>
     </row>
     <row r="41" spans="2:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="82"/>
+      <c r="B41" s="73"/>
       <c r="C41" s="64" t="s">
         <v>12</v>
       </c>
@@ -3050,7 +3025,7 @@
       <c r="O41" s="33"/>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B42" s="80" t="s">
+      <c r="B42" s="71" t="s">
         <v>33</v>
       </c>
       <c r="C42" s="60">
@@ -3094,7 +3069,7 @@
       </c>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B43" s="81"/>
+      <c r="B43" s="72"/>
       <c r="C43" s="61">
         <v>310</v>
       </c>
@@ -3136,7 +3111,7 @@
       </c>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B44" s="81"/>
+      <c r="B44" s="72"/>
       <c r="C44" s="61">
         <v>320</v>
       </c>
@@ -3178,7 +3153,7 @@
       </c>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B45" s="81"/>
+      <c r="B45" s="72"/>
       <c r="C45" s="61">
         <v>330</v>
       </c>
@@ -3220,7 +3195,7 @@
       </c>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B46" s="81"/>
+      <c r="B46" s="72"/>
       <c r="C46" s="61">
         <v>340</v>
       </c>
@@ -3262,7 +3237,7 @@
       </c>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B47" s="81"/>
+      <c r="B47" s="72"/>
       <c r="C47" s="61">
         <v>350</v>
       </c>
@@ -3304,7 +3279,7 @@
       </c>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B48" s="81"/>
+      <c r="B48" s="72"/>
       <c r="C48" s="61">
         <v>360</v>
       </c>
@@ -3346,7 +3321,7 @@
       </c>
     </row>
     <row r="49" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B49" s="81"/>
+      <c r="B49" s="72"/>
       <c r="C49" s="61">
         <v>370</v>
       </c>
@@ -3388,7 +3363,7 @@
       </c>
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B50" s="81"/>
+      <c r="B50" s="72"/>
       <c r="C50" s="62">
         <v>380</v>
       </c>
@@ -3430,7 +3405,7 @@
       </c>
     </row>
     <row r="51" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="81"/>
+      <c r="B51" s="72"/>
       <c r="C51" s="67">
         <v>390</v>
       </c>
@@ -3472,7 +3447,7 @@
       </c>
     </row>
     <row r="52" spans="2:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="82"/>
+      <c r="B52" s="73"/>
       <c r="C52" s="64" t="s">
         <v>12</v>
       </c>
@@ -3490,7 +3465,7 @@
       <c r="O52" s="33"/>
     </row>
     <row r="53" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B53" s="80" t="s">
+      <c r="B53" s="71" t="s">
         <v>33</v>
       </c>
       <c r="C53" s="60">
@@ -3534,7 +3509,7 @@
       </c>
     </row>
     <row r="54" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B54" s="81"/>
+      <c r="B54" s="72"/>
       <c r="C54" s="61">
         <v>410</v>
       </c>
@@ -3576,7 +3551,7 @@
       </c>
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B55" s="81"/>
+      <c r="B55" s="72"/>
       <c r="C55" s="61">
         <v>420</v>
       </c>
@@ -3618,7 +3593,7 @@
       </c>
     </row>
     <row r="56" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B56" s="81"/>
+      <c r="B56" s="72"/>
       <c r="C56" s="61">
         <v>430</v>
       </c>
@@ -3660,7 +3635,7 @@
       </c>
     </row>
     <row r="57" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B57" s="81"/>
+      <c r="B57" s="72"/>
       <c r="C57" s="61">
         <v>440</v>
       </c>
@@ -3702,7 +3677,7 @@
       </c>
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B58" s="81"/>
+      <c r="B58" s="72"/>
       <c r="C58" s="61">
         <v>450</v>
       </c>
@@ -3744,7 +3719,7 @@
       </c>
     </row>
     <row r="59" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B59" s="81"/>
+      <c r="B59" s="72"/>
       <c r="C59" s="61">
         <v>460</v>
       </c>
@@ -3786,7 +3761,7 @@
       </c>
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B60" s="81"/>
+      <c r="B60" s="72"/>
       <c r="C60" s="61">
         <v>470</v>
       </c>
@@ -3828,7 +3803,7 @@
       </c>
     </row>
     <row r="61" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B61" s="81"/>
+      <c r="B61" s="72"/>
       <c r="C61" s="62">
         <v>480</v>
       </c>
@@ -3870,7 +3845,7 @@
       </c>
     </row>
     <row r="62" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="81"/>
+      <c r="B62" s="72"/>
       <c r="C62" s="67">
         <v>490</v>
       </c>
@@ -3912,7 +3887,7 @@
       </c>
     </row>
     <row r="63" spans="2:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="82"/>
+      <c r="B63" s="73"/>
       <c r="C63" s="64" t="s">
         <v>12</v>
       </c>
@@ -3989,10 +3964,10 @@
       <c r="O65" s="44"/>
     </row>
     <row r="66" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="83" t="s">
+      <c r="B66" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="C66" s="84"/>
+      <c r="C66" s="75"/>
       <c r="D66" s="49" t="str">
         <f>IF(SUM(D19,D30,D41,D52,D63)=0,"")</f>
         <v/>
@@ -4052,10 +4027,10 @@
     </row>
     <row r="68" spans="2:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B68" s="45"/>
-      <c r="C68" s="71" t="s">
+      <c r="C68" s="79" t="s">
         <v>27</v>
       </c>
-      <c r="D68" s="72"/>
+      <c r="D68" s="80"/>
       <c r="E68" s="46" t="str">
         <f>IF(SUM(D66:M66,H68,K68)=0,"")</f>
         <v/>
@@ -4063,27 +4038,27 @@
       <c r="F68" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="G68" s="69" t="s">
+      <c r="G68" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="H68" s="88" t="str">
+      <c r="H68" s="46" t="str">
         <f>IF(SUM(N19,N30,N41,N52,N63)=0,"")</f>
         <v/>
       </c>
       <c r="I68" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="J68" s="89" t="s">
+      <c r="J68" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="K68" s="88" t="str">
+      <c r="K68" s="46" t="str">
         <f>IF(SUM(O19,O30,O41,O52,O63)=0,"")</f>
         <v/>
       </c>
       <c r="L68" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="M68" s="70" t="s">
+      <c r="M68" s="69" t="s">
         <v>29</v>
       </c>
       <c r="N68" s="46" t="str">
@@ -4093,34 +4068,34 @@
       <c r="O68" s="42"/>
     </row>
     <row r="70" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D70" s="75" t="s">
+      <c r="D70" s="83" t="s">
         <v>26</v>
       </c>
-      <c r="E70" s="75"/>
-      <c r="F70" s="75"/>
-      <c r="G70" s="75"/>
-      <c r="H70" s="75"/>
-      <c r="I70" s="75"/>
-      <c r="J70" s="75"/>
-      <c r="K70" s="75"/>
-      <c r="L70" s="75"/>
-      <c r="M70" s="75"/>
-      <c r="N70" s="75"/>
-      <c r="O70" s="75"/>
+      <c r="E70" s="83"/>
+      <c r="F70" s="83"/>
+      <c r="G70" s="83"/>
+      <c r="H70" s="83"/>
+      <c r="I70" s="83"/>
+      <c r="J70" s="83"/>
+      <c r="K70" s="83"/>
+      <c r="L70" s="83"/>
+      <c r="M70" s="83"/>
+      <c r="N70" s="83"/>
+      <c r="O70" s="83"/>
     </row>
     <row r="71" spans="2:15" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D71" s="76"/>
-      <c r="E71" s="77"/>
-      <c r="F71" s="78"/>
-      <c r="G71" s="76"/>
-      <c r="H71" s="77"/>
-      <c r="I71" s="78"/>
-      <c r="J71" s="76"/>
-      <c r="K71" s="77"/>
-      <c r="L71" s="78"/>
-      <c r="M71" s="76"/>
-      <c r="N71" s="77"/>
-      <c r="O71" s="78"/>
+      <c r="D71" s="84"/>
+      <c r="E71" s="85"/>
+      <c r="F71" s="86"/>
+      <c r="G71" s="84"/>
+      <c r="H71" s="85"/>
+      <c r="I71" s="86"/>
+      <c r="J71" s="84"/>
+      <c r="K71" s="85"/>
+      <c r="L71" s="86"/>
+      <c r="M71" s="84"/>
+      <c r="N71" s="85"/>
+      <c r="O71" s="86"/>
     </row>
     <row r="72" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D72" s="42"/>
@@ -4180,6 +4155,13 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D70:O70"/>
+    <mergeCell ref="D71:F71"/>
+    <mergeCell ref="G71:I71"/>
+    <mergeCell ref="J71:L71"/>
+    <mergeCell ref="M71:O71"/>
     <mergeCell ref="G1:K1"/>
     <mergeCell ref="B53:B63"/>
     <mergeCell ref="B66:C66"/>
@@ -4193,13 +4175,6 @@
     <mergeCell ref="B20:B30"/>
     <mergeCell ref="B31:B41"/>
     <mergeCell ref="B42:B52"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D70:O70"/>
-    <mergeCell ref="D71:F71"/>
-    <mergeCell ref="G71:I71"/>
-    <mergeCell ref="J71:L71"/>
-    <mergeCell ref="M71:O71"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
